--- a/diagrama_de_ventas.xlsx
+++ b/diagrama_de_ventas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Nombre</t>
   </si>
@@ -39,88 +39,44 @@
     <t>DNI</t>
   </si>
   <si>
-    <t>Rosa Melano</t>
-  </si>
-  <si>
-    <t>PayPal</t>
-  </si>
-  <si>
-    <t>68751938Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asus Tuf Gaming F15 2020 </t>
-  </si>
-  <si>
-    <t>Pepe Perales</t>
-  </si>
-  <si>
-    <t>Ram DDR5 16GB corsair</t>
-  </si>
-  <si>
-    <t>efectivo</t>
-  </si>
-  <si>
-    <t>44575652X</t>
-  </si>
-  <si>
-    <t>mela pelan toda</t>
-  </si>
-  <si>
-    <t>Ryzen 9 7860X  /  MSI b760 Wifi</t>
-  </si>
-  <si>
-    <t>Debito</t>
-  </si>
-  <si>
-    <t>624€ / 464€</t>
-  </si>
-  <si>
-    <t>78787378D</t>
-  </si>
-  <si>
-    <t>Jose Roberto Trap</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Zfol 6</t>
-  </si>
-  <si>
-    <t>66633369W</t>
-  </si>
-  <si>
-    <t>arturo klo duron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cascos Gaming RGB Corsair / Pilas AAA+ </t>
-  </si>
-  <si>
-    <t>Credito</t>
-  </si>
-  <si>
-    <t>60€ / 6€</t>
-  </si>
-  <si>
-    <t>12345678G</t>
-  </si>
-  <si>
-    <t>CR7</t>
-  </si>
-  <si>
-    <t>RTX4090TI / Mando PS5 Pro</t>
-  </si>
-  <si>
-    <t>2100€ / 239,99€</t>
-  </si>
-  <si>
-    <t>69699666A</t>
+    <t>Precio/Mano de obra</t>
+  </si>
+  <si>
+    <t>Precio/Piezas</t>
+  </si>
+  <si>
+    <t>Precio/Ganancias</t>
+  </si>
+  <si>
+    <t>Federico Rabote</t>
+  </si>
+  <si>
+    <t>Sumsung s25 +</t>
+  </si>
+  <si>
+    <t>Efectivo</t>
+  </si>
+  <si>
+    <t>Falla</t>
+  </si>
+  <si>
+    <t>Camara de atrás no enfoca y se reinicia</t>
+  </si>
+  <si>
+    <t>46137982W</t>
+  </si>
+  <si>
+    <t>Precio/Todo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="#\ ?/2"/>
+    <numFmt numFmtId="165" formatCode="#\ ?/2"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -151,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -162,10 +118,16 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -469,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,13 +442,18 @@
     <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="23" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,165 +464,120 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>700</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6">
+        <v>25</v>
       </c>
       <c r="G2" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
-        <v>70</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1">
         <v>15</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="I2" s="6">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="6">
+        <f>SUM(H2,I2)</f>
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1">
-        <f>SUM(624,464*2)</f>
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2300</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1">
-        <f>SUM(60 *2, 6*3)</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2.3768115942028984</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1">
-        <f>SUM(2100 * 226, 239.99 * 69)</f>
-        <v>491159.31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="L2" s="6">
+        <f>F2-K2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="H3" s="1"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="H4" s="1"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="H7" s="1"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="L13" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
